--- a/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{642C8DD2-7D48-442F-95DB-D43622B33168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0224EA-1824-4627-A3A8-1D57F2EB4A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D5A2DBB9-2DBC-4EC1-9EF9-E4A7CB1E30C1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC700FDC-1099-4B4A-A7EE-6116C08294EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="388">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1150 +80,1129 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>En silla ruedas sin ayuda</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>En silla ruedas sin ayuda</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>94,22%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE787A0E-52CA-4F89-92E5-06F1CAC07802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20F67EA-4D42-49BC-AFFA-BA67097E230D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1903,7 @@
         <v>542</v>
       </c>
       <c r="I7" s="7">
-        <v>553864</v>
+        <v>553863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1975,7 +1954,7 @@
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2199,13 +2178,13 @@
         <v>147431</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,7 +2240,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2279,7 +2258,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2294,7 +2273,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2309,7 +2288,7 @@
         <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2309,7 @@
         <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2345,7 +2324,7 @@
         <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2360,7 +2339,7 @@
         <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2390,13 +2369,13 @@
         <v>1274</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2405,13 +2384,13 @@
         <v>1274</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,7 +2408,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>50</v>
@@ -2441,10 +2420,10 @@
         <v>25607</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -2456,10 +2435,10 @@
         <v>66801</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -2530,13 +2509,13 @@
         <v>2725</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2545,13 +2524,13 @@
         <v>9515</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2560,13 +2539,13 @@
         <v>12240</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,7 +2560,7 @@
         <v>10320</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>94</v>
@@ -2632,13 +2611,13 @@
         <v>868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2647,13 +2626,13 @@
         <v>6710</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2662,13 +2641,13 @@
         <v>7578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2662,13 @@
         <v>488553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -2698,13 +2677,13 @@
         <v>639627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1134</v>
@@ -2713,13 +2692,13 @@
         <v>1128180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,7 +2754,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8714A6-1213-4C2D-AD9B-9B8C7C304FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573FD68-FE81-49DF-A393-0AD1DE1A81CA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2811,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,13 +2897,13 @@
         <v>9438</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2933,13 +2912,13 @@
         <v>23669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2948,13 +2927,13 @@
         <v>33107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2948,13 @@
         <v>9655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2984,13 +2963,13 @@
         <v>32001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -2999,13 +2978,13 @@
         <v>41657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +2999,13 @@
         <v>3369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3035,13 +3014,13 @@
         <v>3334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3050,13 +3029,13 @@
         <v>6704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3050,13 @@
         <v>391935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
@@ -3086,13 +3065,13 @@
         <v>575540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3101,13 +3080,13 @@
         <v>967474</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,7 +3160,7 @@
         <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3190,13 +3169,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3205,13 +3184,13 @@
         <v>2424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3205,13 @@
         <v>2099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3241,13 +3220,13 @@
         <v>1043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3256,13 +3235,13 @@
         <v>3142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3262,7 @@
         <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3298,7 +3277,7 @@
         <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3313,7 +3292,7 @@
         <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,10 +3307,10 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>66</v>
@@ -3343,13 +3322,13 @@
         <v>79607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3358,13 +3337,13 @@
         <v>196173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,7 +3399,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3438,7 +3417,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3453,7 +3432,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3468,7 +3447,7 @@
         <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3468,7 @@
         <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3498,13 +3477,13 @@
         <v>1053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>176</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3513,13 +3492,13 @@
         <v>1053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3513,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3549,13 +3528,13 @@
         <v>1100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3564,13 +3543,13 @@
         <v>2085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,10 +3564,10 @@
         <v>25589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -3600,10 +3579,10 @@
         <v>20094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -3615,13 +3594,13 @@
         <v>45683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3668,13 @@
         <v>9438</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3704,13 +3683,13 @@
         <v>26093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3719,13 +3698,13 @@
         <v>35531</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3719,13 @@
         <v>11754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3755,13 +3734,13 @@
         <v>34097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3770,13 +3749,13 @@
         <v>45852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3770,13 @@
         <v>4355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3806,13 +3785,13 @@
         <v>4434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3821,13 +3800,13 @@
         <v>8789</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3821,13 @@
         <v>534090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H22" s="7">
         <v>632</v>
@@ -3857,13 +3836,13 @@
         <v>675240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
         <v>1113</v>
@@ -3872,13 +3851,13 @@
         <v>1209330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,7 +3913,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3953,7 +3932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5133E3-FC32-4CE7-958C-6D7E11D45B42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9CF15-F9A4-40D7-96E9-6503F8B9EE85}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3970,7 +3949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4077,13 +4056,13 @@
         <v>3525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4092,13 +4071,13 @@
         <v>13205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4107,13 +4086,13 @@
         <v>16730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>224</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,10 +4125,10 @@
         <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4158,13 +4137,13 @@
         <v>51560</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4164,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4194,13 +4173,13 @@
         <v>1131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4209,13 +4188,13 @@
         <v>3701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,16 +4206,16 @@
         <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>333204</v>
+        <v>333203</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>431</v>
@@ -4245,13 +4224,13 @@
         <v>503465</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>793</v>
@@ -4260,13 +4239,13 @@
         <v>836667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,7 +4257,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -4334,13 +4313,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4355,7 +4334,7 @@
         <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4364,13 +4343,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4364,13 @@
         <v>1024</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4400,13 +4379,13 @@
         <v>5745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4415,13 +4394,13 @@
         <v>6769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4415,13 @@
         <v>898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4451,13 +4430,13 @@
         <v>1187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4466,13 +4445,13 @@
         <v>2085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4466,13 @@
         <v>188807</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H12" s="7">
         <v>151</v>
@@ -4502,13 +4481,13 @@
         <v>181142</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -4517,13 +4496,13 @@
         <v>369948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,7 +4558,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4597,7 +4576,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4612,7 +4591,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4627,7 +4606,7 @@
         <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4621,13 @@
         <v>1572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>195</v>
+        <v>101</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4657,13 +4636,13 @@
         <v>1376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4672,13 +4651,13 @@
         <v>2948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,7 +4678,7 @@
         <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4714,7 +4693,7 @@
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4729,7 +4708,7 @@
         <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,10 +4723,10 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -4759,10 +4738,10 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -4774,10 +4753,10 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -4848,13 +4827,13 @@
         <v>5329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4863,13 +4842,13 @@
         <v>13205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4878,13 +4857,13 @@
         <v>18534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4878,13 @@
         <v>17199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4914,13 +4893,13 @@
         <v>44077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -4929,13 +4908,13 @@
         <v>61276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4929,13 @@
         <v>3468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4965,13 +4944,13 @@
         <v>2318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>301</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4980,13 +4959,13 @@
         <v>5786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +4980,13 @@
         <v>562467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H22" s="7">
         <v>607</v>
@@ -5016,13 +4995,13 @@
         <v>716904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M22" s="7">
         <v>1202</v>
@@ -5031,13 +5010,13 @@
         <v>1279372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5072,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5112,7 +5091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC698CF0-97D3-4058-83DD-5801F21D112B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1110691E-0CF3-4481-960F-BD897508BE1E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5129,7 +5108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5236,13 +5215,13 @@
         <v>3917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5251,13 +5230,13 @@
         <v>14945</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5266,13 +5245,13 @@
         <v>18862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5266,13 @@
         <v>6896</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5302,13 +5281,13 @@
         <v>43046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
@@ -5317,13 +5296,13 @@
         <v>49942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5317,13 @@
         <v>1343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5353,13 +5332,13 @@
         <v>8410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5368,13 +5347,13 @@
         <v>9753</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5368,13 @@
         <v>275316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>908</v>
@@ -5404,13 +5383,13 @@
         <v>489119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>1317</v>
@@ -5419,13 +5398,13 @@
         <v>764435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5472,13 @@
         <v>1444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5508,13 +5487,13 @@
         <v>2072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5523,13 +5502,13 @@
         <v>3516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5523,13 @@
         <v>5288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5559,13 +5538,13 @@
         <v>8206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5574,13 +5553,13 @@
         <v>13495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5574,13 @@
         <v>1400</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5610,13 +5589,13 @@
         <v>1485</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5625,13 +5604,13 @@
         <v>2885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5625,13 @@
         <v>286434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H12" s="7">
         <v>505</v>
@@ -5661,13 +5640,13 @@
         <v>374659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>920</v>
@@ -5676,13 +5655,13 @@
         <v>661093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>214</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,7 +5717,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5756,7 +5735,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5771,7 +5750,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5786,7 +5765,7 @@
         <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5786,7 @@
         <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5816,13 +5795,13 @@
         <v>427</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5837,7 +5816,7 @@
         <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,13 +5831,13 @@
         <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5873,7 +5852,7 @@
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5882,13 +5861,13 @@
         <v>159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,10 +5882,10 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5918,10 +5897,10 @@
         <v>77818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -5933,10 +5912,10 @@
         <v>189645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -6007,13 +5986,13 @@
         <v>5360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6022,13 +6001,13 @@
         <v>17017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6037,13 +6016,13 @@
         <v>22377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,13 +6037,13 @@
         <v>12184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -6073,13 +6052,13 @@
         <v>51679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -6088,13 +6067,13 @@
         <v>63864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6088,13 @@
         <v>2902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -6124,13 +6103,13 @@
         <v>9895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>384</v>
+        <v>94</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -6139,13 +6118,13 @@
         <v>12797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6139,13 @@
         <v>673577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>1564</v>
@@ -6175,13 +6154,13 @@
         <v>941596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>2555</v>
@@ -6190,13 +6169,13 @@
         <v>1615173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,7 +6231,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C0224EA-1824-4627-A3A8-1D57F2EB4A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9AF734-BE09-45A3-B4CE-411529E12267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC700FDC-1099-4B4A-A7EE-6116C08294EA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96B45D8D-DE10-43F5-B902-226FDA4DE32C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="390">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1098 +80,1107 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,67%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>En silla ruedas sin ayuda</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
   </si>
   <si>
     <t>2,82%</t>
   </si>
   <si>
-    <t>1,15%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>En silla ruedas sin ayuda</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
@@ -1194,9 +1203,6 @@
   </si>
   <si>
     <t>94,71%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
   </si>
   <si>
     <t>93,12%</t>
@@ -1614,7 +1620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20F67EA-4D42-49BC-AFFA-BA67097E230D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7523443A-FC72-48A8-AE33-1C0D8A835EA6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1825,13 +1831,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1840,13 +1846,13 @@
         <v>868</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -1855,13 +1861,13 @@
         <v>5437</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1870,19 +1876,19 @@
         <v>6305</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>385</v>
@@ -1891,28 +1897,28 @@
         <v>360085</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
       </c>
       <c r="I7" s="7">
-        <v>553863</v>
+        <v>553864</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>927</v>
@@ -1921,13 +1927,13 @@
         <v>913948</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,28 +1948,28 @@
         <v>373189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -1972,18 +1978,18 @@
         <v>960938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1995,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2010,13 +2016,13 @@
         <v>1141</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2025,13 +2031,13 @@
         <v>1141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,13 +2052,13 @@
         <v>810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2061,13 +2067,13 @@
         <v>914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2079,16 +2085,16 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2097,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2112,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2127,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>88</v>
@@ -2148,13 +2154,13 @@
         <v>87273</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -2163,13 +2169,13 @@
         <v>60157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>146</v>
@@ -2178,13 +2184,13 @@
         <v>147431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,13 +2205,13 @@
         <v>88083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2214,13 +2220,13 @@
         <v>62212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -2229,18 +2235,18 @@
         <v>150295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2252,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2267,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2282,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2318,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2333,19 +2339,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2354,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2369,13 +2375,13 @@
         <v>1274</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2384,19 +2390,19 @@
         <v>1274</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>35</v>
@@ -2405,13 +2411,13 @@
         <v>41194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2420,13 +2426,13 @@
         <v>25607</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2435,13 +2441,13 @@
         <v>66801</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2462,13 @@
         <v>41194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2471,13 +2477,13 @@
         <v>26881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -2486,13 +2492,13 @@
         <v>68075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2515,13 @@
         <v>2725</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2524,13 +2530,13 @@
         <v>9515</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2539,13 +2545,13 @@
         <v>12240</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2566,13 @@
         <v>10320</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2575,13 +2581,13 @@
         <v>20990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -2590,19 +2596,19 @@
         <v>31310</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2611,13 +2617,13 @@
         <v>868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2626,13 +2632,13 @@
         <v>6710</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2641,19 +2647,19 @@
         <v>7578</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>508</v>
@@ -2662,13 +2668,13 @@
         <v>488553</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -2677,13 +2683,13 @@
         <v>639627</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>1134</v>
@@ -2692,13 +2698,13 @@
         <v>1128180</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2719,13 @@
         <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -2728,13 +2734,13 @@
         <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -2743,18 +2749,18 @@
         <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D573FD68-FE81-49DF-A393-0AD1DE1A81CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8029F0-FD97-43D4-B680-F5B47F7CBED8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2790,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2897,13 +2903,13 @@
         <v>9438</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2912,13 +2918,13 @@
         <v>23669</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2927,13 +2933,13 @@
         <v>33107</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2954,13 @@
         <v>9655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2963,13 +2969,13 @@
         <v>32001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -2978,19 +2984,19 @@
         <v>41657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -2999,13 +3005,13 @@
         <v>3369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3014,13 +3020,13 @@
         <v>3334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3029,19 +3035,19 @@
         <v>6704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>358</v>
@@ -3050,13 +3056,13 @@
         <v>391935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
@@ -3065,13 +3071,13 @@
         <v>575540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3080,13 +3086,13 @@
         <v>967474</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3107,13 @@
         <v>414398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>596</v>
@@ -3116,13 +3122,13 @@
         <v>634545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -3131,18 +3137,18 @@
         <v>1048942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3154,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3169,13 +3175,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3184,13 +3190,13 @@
         <v>2424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3211,13 @@
         <v>2099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3220,13 +3226,13 @@
         <v>1043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3235,19 +3241,19 @@
         <v>3142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3256,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3271,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3286,19 +3292,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>103</v>
@@ -3307,13 +3313,13 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -3322,13 +3328,13 @@
         <v>79607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3337,13 +3343,13 @@
         <v>196173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3364,13 @@
         <v>118665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3373,13 +3379,13 @@
         <v>83074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -3388,18 +3394,18 @@
         <v>201739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3411,13 +3417,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3426,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3441,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3477,13 +3483,13 @@
         <v>1053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3492,19 +3498,19 @@
         <v>1053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -3513,13 +3519,13 @@
         <v>986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3528,13 +3534,13 @@
         <v>1100</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3543,19 +3549,19 @@
         <v>2085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3564,13 +3570,13 @@
         <v>25589</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3579,13 +3585,13 @@
         <v>20094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3594,13 +3600,13 @@
         <v>45683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3621,13 @@
         <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3630,13 +3636,13 @@
         <v>22246</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3645,13 +3651,13 @@
         <v>48821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3674,13 @@
         <v>9438</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3683,13 +3689,13 @@
         <v>26093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3698,13 +3704,13 @@
         <v>35531</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3725,13 @@
         <v>11754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3734,13 +3740,13 @@
         <v>34097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3749,19 +3755,19 @@
         <v>45852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -3770,13 +3776,13 @@
         <v>4355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3785,13 +3791,13 @@
         <v>4434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3800,19 +3806,19 @@
         <v>8789</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>481</v>
@@ -3821,13 +3827,13 @@
         <v>534090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>632</v>
@@ -3836,13 +3842,13 @@
         <v>675240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>1113</v>
@@ -3851,13 +3857,13 @@
         <v>1209330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3878,13 @@
         <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -3887,13 +3893,13 @@
         <v>739865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -3902,18 +3908,18 @@
         <v>1299502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C9CF15-F9A4-40D7-96E9-6503F8B9EE85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A9867-1BCD-429D-8102-2A6C74377F89}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3949,7 +3955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4056,13 +4062,13 @@
         <v>3525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4071,13 +4077,13 @@
         <v>13205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4086,13 +4092,13 @@
         <v>16730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4113,13 @@
         <v>14603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4122,13 +4128,13 @@
         <v>36956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4137,19 +4143,19 @@
         <v>51560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -4164,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4173,13 +4179,13 @@
         <v>1131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4188,34 +4194,34 @@
         <v>3701</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>333203</v>
+        <v>333204</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>431</v>
@@ -4224,13 +4230,13 @@
         <v>503465</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>793</v>
@@ -4239,13 +4245,13 @@
         <v>836667</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,16 +4263,16 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>471</v>
@@ -4275,13 +4281,13 @@
         <v>554757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4290,18 +4296,18 @@
         <v>908658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4313,13 +4319,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4328,13 +4334,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4343,13 +4349,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4370,13 @@
         <v>1024</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4379,13 +4385,13 @@
         <v>5745</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4394,19 +4400,19 @@
         <v>6769</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4415,13 +4421,13 @@
         <v>898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4430,13 +4436,13 @@
         <v>1187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4445,19 +4451,19 @@
         <v>2085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>260</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>193</v>
@@ -4487,7 +4493,7 @@
         <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -4496,13 +4502,13 @@
         <v>369948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4523,13 @@
         <v>192532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4532,13 +4538,13 @@
         <v>188074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -4547,18 +4553,18 @@
         <v>380606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4570,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4585,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4600,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4627,13 @@
         <v>1572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4636,13 +4642,13 @@
         <v>1376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4651,19 +4657,19 @@
         <v>2948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -4672,13 +4678,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4687,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4702,19 +4708,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -4723,13 +4729,13 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4738,13 +4744,13 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4753,13 +4759,13 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4780,13 @@
         <v>42029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4789,13 +4795,13 @@
         <v>33674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4804,13 +4810,13 @@
         <v>75703</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4833,13 @@
         <v>5329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4842,13 +4848,13 @@
         <v>13205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4857,13 +4863,13 @@
         <v>18534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>287</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,10 +4884,10 @@
         <v>17199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>288</v>
@@ -4911,16 +4917,16 @@
         <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -4929,13 +4935,13 @@
         <v>3468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4944,13 +4950,13 @@
         <v>2318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4959,19 +4965,19 @@
         <v>5786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>595</v>
@@ -4980,13 +4986,13 @@
         <v>562467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>607</v>
@@ -4995,13 +5001,13 @@
         <v>716904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>1202</v>
@@ -5010,10 +5016,10 @@
         <v>1279372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>305</v>
@@ -5031,13 +5037,13 @@
         <v>588463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>654</v>
@@ -5046,13 +5052,13 @@
         <v>776505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1278</v>
@@ -5061,18 +5067,18 @@
         <v>1364968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5091,7 +5097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1110691E-0CF3-4481-960F-BD897508BE1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD06FC5-C5B0-4D19-B244-A54D0B049A99}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5215,13 +5221,13 @@
         <v>3917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5230,13 +5236,13 @@
         <v>14945</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5245,13 +5251,13 @@
         <v>18862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,13 +5272,13 @@
         <v>6896</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5281,13 +5287,13 @@
         <v>43046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
@@ -5296,19 +5302,19 @@
         <v>49942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -5317,13 +5323,13 @@
         <v>1343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5332,13 +5338,13 @@
         <v>8410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>39</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5347,19 +5353,19 @@
         <v>9753</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>210</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>409</v>
@@ -5368,13 +5374,13 @@
         <v>275316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>908</v>
@@ -5383,13 +5389,13 @@
         <v>489119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>1317</v>
@@ -5398,13 +5404,13 @@
         <v>764435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5425,13 @@
         <v>287472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>1019</v>
@@ -5434,13 +5440,13 @@
         <v>555520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>1447</v>
@@ -5449,18 +5455,18 @@
         <v>842991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5472,13 +5478,13 @@
         <v>1444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5487,13 +5493,13 @@
         <v>2072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5502,13 +5508,13 @@
         <v>3516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>235</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5529,13 @@
         <v>5288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5538,13 +5544,13 @@
         <v>8206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5553,19 +5559,19 @@
         <v>13495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -5574,13 +5580,13 @@
         <v>1400</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5589,13 +5595,13 @@
         <v>1485</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5604,19 +5610,19 @@
         <v>2885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>415</v>
@@ -5625,13 +5631,13 @@
         <v>286434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>505</v>
@@ -5640,13 +5646,13 @@
         <v>374659</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>920</v>
@@ -5655,7 +5661,7 @@
         <v>661093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>214</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>351</v>
@@ -5676,13 +5682,13 @@
         <v>294566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>529</v>
@@ -5691,13 +5697,13 @@
         <v>386422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>955</v>
@@ -5706,18 +5712,18 @@
         <v>680988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5729,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>353</v>
@@ -5744,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5759,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,10 +5786,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>353</v>
@@ -5795,10 +5801,10 @@
         <v>427</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>354</v>
@@ -5813,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>355</v>
@@ -5822,7 +5828,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -5831,13 +5837,13 @@
         <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5846,13 +5852,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5861,19 +5867,19 @@
         <v>159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -5882,13 +5888,13 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -5897,13 +5903,13 @@
         <v>77818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>359</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -5912,13 +5918,13 @@
         <v>189645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5939,13 @@
         <v>111986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5948,13 +5954,13 @@
         <v>78245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>320</v>
@@ -5963,13 +5969,13 @@
         <v>190231</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,13 +5992,13 @@
         <v>5360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6001,13 +6007,13 @@
         <v>17017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6016,13 +6022,13 @@
         <v>22377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>369</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +6043,13 @@
         <v>12184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>371</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -6052,13 +6058,13 @@
         <v>51679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -6067,19 +6073,19 @@
         <v>63864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -6088,13 +6094,13 @@
         <v>2902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>375</v>
+        <v>233</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -6103,13 +6109,13 @@
         <v>9895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>379</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -6118,19 +6124,19 @@
         <v>12797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>376</v>
+        <v>87</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>991</v>
@@ -6139,13 +6145,13 @@
         <v>673577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>1564</v>
@@ -6154,13 +6160,13 @@
         <v>941596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>2555</v>
@@ -6169,13 +6175,13 @@
         <v>1615173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,13 +6196,13 @@
         <v>694024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1700</v>
@@ -6205,13 +6211,13 @@
         <v>1020187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>2722</v>
@@ -6220,18 +6226,18 @@
         <v>1714211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9AF734-BE09-45A3-B4CE-411529E12267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3297BE-8DC7-4D0B-9734-AC072D43635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{96B45D8D-DE10-43F5-B902-226FDA4DE32C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3BF561-0B82-43D4-B37C-78CB18EF7942}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="395">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1135 +80,1150 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Con algo de ayuda</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>En silla ruedas sin ayuda</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>1,42%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>Con algo de ayuda</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>En silla ruedas sin ayuda</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>95,77%</t>
   </si>
   <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
   </si>
 </sst>
 </file>
@@ -1620,7 +1635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7523443A-FC72-48A8-AE33-1C0D8A835EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA90989F-9A41-4BC0-9137-C3A864208077}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1831,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1846,13 +1861,13 @@
         <v>868</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -1861,13 +1876,13 @@
         <v>5437</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -1876,19 +1891,19 @@
         <v>6305</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>385</v>
@@ -1897,13 +1912,13 @@
         <v>360085</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
@@ -1912,13 +1927,13 @@
         <v>553864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>927</v>
@@ -1927,13 +1942,13 @@
         <v>913948</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1963,13 @@
         <v>373189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>574</v>
@@ -1963,13 +1978,13 @@
         <v>587750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>973</v>
@@ -1978,18 +1993,18 @@
         <v>960938</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2001,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2016,13 +2031,13 @@
         <v>1141</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2031,13 +2046,13 @@
         <v>1141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2067,13 @@
         <v>810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2067,13 +2082,13 @@
         <v>914</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2085,16 +2100,16 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2103,13 +2118,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2118,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2133,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>88</v>
@@ -2154,13 +2169,13 @@
         <v>87273</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -2169,13 +2184,13 @@
         <v>60157</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M12" s="7">
         <v>146</v>
@@ -2184,13 +2199,13 @@
         <v>147431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2220,13 @@
         <v>88083</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -2220,13 +2235,13 @@
         <v>62212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -2235,18 +2250,18 @@
         <v>150295</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2273,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2288,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2324,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2324,13 +2339,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2339,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -2360,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2375,13 +2390,13 @@
         <v>1274</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2390,19 +2405,19 @@
         <v>1274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>35</v>
@@ -2411,13 +2426,13 @@
         <v>41194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -2426,13 +2441,13 @@
         <v>25607</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -2441,13 +2456,13 @@
         <v>66801</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2477,13 @@
         <v>41194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -2477,13 +2492,13 @@
         <v>26881</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -2492,13 +2507,13 @@
         <v>68075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2530,13 @@
         <v>2725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -2530,13 +2545,13 @@
         <v>9515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -2545,13 +2560,13 @@
         <v>12240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,13 +2581,13 @@
         <v>10320</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -2581,13 +2596,13 @@
         <v>20990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
@@ -2596,19 +2611,19 @@
         <v>31310</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2617,13 +2632,13 @@
         <v>868</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2632,13 +2647,13 @@
         <v>6710</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2647,19 +2662,19 @@
         <v>7578</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>508</v>
@@ -2668,13 +2683,13 @@
         <v>488553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>626</v>
@@ -2683,13 +2698,13 @@
         <v>639627</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
         <v>1134</v>
@@ -2704,7 +2719,7 @@
         <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,13 +2734,13 @@
         <v>502466</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>661</v>
@@ -2734,13 +2749,13 @@
         <v>676842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1184</v>
@@ -2749,18 +2764,18 @@
         <v>1179308</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8029F0-FD97-43D4-B680-F5B47F7CBED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B142E04A-C591-4834-96C8-9C3C5912AEE6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2903,13 +2918,13 @@
         <v>9438</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2918,13 +2933,13 @@
         <v>23669</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -2933,13 +2948,13 @@
         <v>33107</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2969,13 @@
         <v>9655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>30</v>
@@ -2969,13 +2984,13 @@
         <v>32001</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -2984,19 +2999,19 @@
         <v>41657</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -3005,13 +3020,13 @@
         <v>3369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -3020,13 +3035,13 @@
         <v>3334</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3035,19 +3050,19 @@
         <v>6704</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>358</v>
@@ -3056,13 +3071,13 @@
         <v>391935</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>542</v>
@@ -3071,13 +3086,13 @@
         <v>575540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>900</v>
@@ -3086,13 +3101,13 @@
         <v>967474</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3122,13 @@
         <v>414398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>596</v>
@@ -3122,13 +3137,13 @@
         <v>634545</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>974</v>
@@ -3137,18 +3152,18 @@
         <v>1048942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3160,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3175,13 +3190,13 @@
         <v>2424</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3190,13 +3205,13 @@
         <v>2424</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3226,13 @@
         <v>2099</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3226,13 +3241,13 @@
         <v>1043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3241,19 +3256,19 @@
         <v>3142</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3262,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3277,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3292,19 +3307,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>103</v>
@@ -3313,13 +3328,13 @@
         <v>116566</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -3328,13 +3343,13 @@
         <v>79607</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M12" s="7">
         <v>177</v>
@@ -3343,13 +3358,13 @@
         <v>196173</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3379,13 @@
         <v>118665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -3379,13 +3394,13 @@
         <v>83074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>182</v>
@@ -3394,18 +3409,18 @@
         <v>201739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3417,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3432,13 +3447,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3447,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3483,13 +3498,13 @@
         <v>1053</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -3498,10 +3513,10 @@
         <v>1053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>171</v>
@@ -3510,7 +3525,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -3522,7 +3537,7 @@
         <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>173</v>
@@ -3537,7 +3552,7 @@
         <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>175</v>
@@ -3552,7 +3567,7 @@
         <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>177</v>
@@ -3561,7 +3576,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>20</v>
@@ -3576,7 +3591,7 @@
         <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -3591,7 +3606,7 @@
         <v>181</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -3621,13 +3636,13 @@
         <v>26575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3636,13 +3651,13 @@
         <v>22246</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -3651,13 +3666,13 @@
         <v>48821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,10 +3692,10 @@
         <v>185</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -3689,13 +3704,13 @@
         <v>26093</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>32</v>
@@ -3704,13 +3719,13 @@
         <v>35531</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3740,13 @@
         <v>11754</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3740,13 +3755,13 @@
         <v>34097</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3755,19 +3770,19 @@
         <v>45852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>3</v>
@@ -3776,13 +3791,13 @@
         <v>4355</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3791,13 +3806,13 @@
         <v>4434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -3806,19 +3821,19 @@
         <v>8789</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>481</v>
@@ -3827,13 +3842,13 @@
         <v>534090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>632</v>
@@ -3842,13 +3857,13 @@
         <v>675240</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>1113</v>
@@ -3857,13 +3872,13 @@
         <v>1209330</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3893,13 @@
         <v>559637</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>691</v>
@@ -3893,13 +3908,13 @@
         <v>739865</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1195</v>
@@ -3908,18 +3923,18 @@
         <v>1299502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3938,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3A9867-1BCD-429D-8102-2A6C74377F89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9478A10-A365-495A-B12F-496E9D70B718}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3955,7 +3970,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4062,13 +4077,13 @@
         <v>3525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4077,13 +4092,13 @@
         <v>13205</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>14</v>
@@ -4092,13 +4107,13 @@
         <v>16730</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4128,13 @@
         <v>14603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H5" s="7">
         <v>29</v>
@@ -4128,13 +4143,13 @@
         <v>36956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -4143,19 +4158,19 @@
         <v>51560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
@@ -4170,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4179,13 +4194,13 @@
         <v>1131</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4194,19 +4209,19 @@
         <v>3701</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>362</v>
@@ -4215,13 +4230,13 @@
         <v>333204</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>431</v>
@@ -4230,13 +4245,13 @@
         <v>503465</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
         <v>793</v>
@@ -4245,13 +4260,13 @@
         <v>836667</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4281,13 @@
         <v>353902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>471</v>
@@ -4281,13 +4296,13 @@
         <v>554757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>857</v>
@@ -4296,18 +4311,18 @@
         <v>908658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4319,13 +4334,13 @@
         <v>1804</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4334,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -4349,13 +4364,13 @@
         <v>1804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4385,13 @@
         <v>1024</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4385,13 +4400,13 @@
         <v>5745</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -4400,19 +4415,19 @@
         <v>6769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -4421,13 +4436,13 @@
         <v>898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4436,13 +4451,13 @@
         <v>1187</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4451,19 +4466,19 @@
         <v>2085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>193</v>
@@ -4472,13 +4487,13 @@
         <v>188807</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>151</v>
@@ -4487,13 +4502,13 @@
         <v>181142</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M12" s="7">
         <v>344</v>
@@ -4502,13 +4517,13 @@
         <v>369948</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4538,13 @@
         <v>192532</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -4538,13 +4553,13 @@
         <v>188074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -4553,18 +4568,18 @@
         <v>380606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4576,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4591,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4606,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4642,13 @@
         <v>1572</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>272</v>
+        <v>195</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4642,13 +4657,13 @@
         <v>1376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4657,19 +4672,19 @@
         <v>2948</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -4678,13 +4693,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4693,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4708,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>40</v>
@@ -4729,13 +4744,13 @@
         <v>40457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4744,13 +4759,13 @@
         <v>32298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4759,13 +4774,13 @@
         <v>72755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4795,13 @@
         <v>42029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>26</v>
@@ -4795,13 +4810,13 @@
         <v>33674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -4810,13 +4825,13 @@
         <v>75703</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4848,13 @@
         <v>5329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -4848,13 +4863,13 @@
         <v>13205</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>289</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4863,13 +4878,13 @@
         <v>18534</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4899,13 @@
         <v>17199</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -4899,13 +4914,13 @@
         <v>44077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -4914,19 +4929,19 @@
         <v>61276</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>4</v>
@@ -4935,13 +4950,13 @@
         <v>3468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -4950,13 +4965,13 @@
         <v>2318</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>302</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -4965,19 +4980,19 @@
         <v>5786</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>595</v>
@@ -4986,13 +5001,13 @@
         <v>562467</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>607</v>
@@ -5001,13 +5016,13 @@
         <v>716904</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>1202</v>
@@ -5016,13 +5031,13 @@
         <v>1279372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5052,13 @@
         <v>588463</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>654</v>
@@ -5052,13 +5067,13 @@
         <v>776505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>1278</v>
@@ -5067,18 +5082,18 @@
         <v>1364968</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5097,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD06FC5-C5B0-4D19-B244-A54D0B049A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4CF842-06B8-4AA5-B1D3-3CFAF799AC13}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5114,7 +5129,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5221,13 +5236,13 @@
         <v>3917</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5236,13 +5251,13 @@
         <v>14945</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -5251,13 +5266,13 @@
         <v>18862</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5287,13 @@
         <v>6896</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5287,13 +5302,13 @@
         <v>43046</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
@@ -5302,19 +5317,19 @@
         <v>49942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -5323,13 +5338,13 @@
         <v>1343</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
@@ -5338,13 +5353,13 @@
         <v>8410</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -5353,19 +5368,19 @@
         <v>9753</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>15</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>324</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>409</v>
@@ -5374,13 +5389,13 @@
         <v>275316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H7" s="7">
         <v>908</v>
@@ -5389,13 +5404,13 @@
         <v>489119</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>1317</v>
@@ -5404,13 +5419,13 @@
         <v>764435</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,13 +5440,13 @@
         <v>287472</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>1019</v>
@@ -5440,13 +5455,13 @@
         <v>555520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>1447</v>
@@ -5455,18 +5470,18 @@
         <v>842991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5478,13 +5493,13 @@
         <v>1444</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5493,13 +5508,13 @@
         <v>2072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>235</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>203</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -5508,13 +5523,13 @@
         <v>3516</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,13 +5544,13 @@
         <v>5288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -5544,13 +5559,13 @@
         <v>8206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -5559,19 +5574,19 @@
         <v>13495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -5580,13 +5595,13 @@
         <v>1400</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -5595,13 +5610,13 @@
         <v>1485</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -5610,19 +5625,19 @@
         <v>2885</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>415</v>
@@ -5631,13 +5646,13 @@
         <v>286434</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="H12" s="7">
         <v>505</v>
@@ -5646,13 +5661,13 @@
         <v>374659</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>920</v>
@@ -5661,13 +5676,13 @@
         <v>661093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5697,13 @@
         <v>294566</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>529</v>
@@ -5697,13 +5712,13 @@
         <v>386422</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>955</v>
@@ -5712,18 +5727,18 @@
         <v>680988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5735,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5750,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5765,13 +5780,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5801,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5801,13 +5816,13 @@
         <v>427</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -5819,16 +5834,16 @@
         <v>12</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>355</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -5837,13 +5852,13 @@
         <v>159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5852,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5867,19 +5882,19 @@
         <v>159</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>155</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>167</v>
@@ -5888,13 +5903,13 @@
         <v>111827</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>151</v>
@@ -5903,13 +5918,13 @@
         <v>77818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>318</v>
@@ -5918,13 +5933,13 @@
         <v>189645</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5954,13 @@
         <v>111986</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>152</v>
@@ -5954,13 +5969,13 @@
         <v>78245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>320</v>
@@ -5969,13 +5984,13 @@
         <v>190231</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6007,13 @@
         <v>5360</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -6007,13 +6022,13 @@
         <v>17017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
@@ -6022,13 +6037,13 @@
         <v>22377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>369</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6058,13 @@
         <v>12184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
@@ -6058,13 +6073,13 @@
         <v>51679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
@@ -6073,19 +6088,19 @@
         <v>63864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>5</v>
@@ -6094,13 +6109,13 @@
         <v>2902</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>383</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -6109,13 +6124,13 @@
         <v>9895</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>313</v>
+        <v>385</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -6124,19 +6139,19 @@
         <v>12797</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>991</v>
@@ -6145,13 +6160,13 @@
         <v>673577</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
         <v>1564</v>
@@ -6160,13 +6175,13 @@
         <v>941596</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>2555</v>
@@ -6175,13 +6190,13 @@
         <v>1615173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6211,13 @@
         <v>694024</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>1700</v>
@@ -6211,13 +6226,13 @@
         <v>1020187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2722</v>
@@ -6226,18 +6241,18 @@
         <v>1714211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C3297BE-8DC7-4D0B-9734-AC072D43635C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C8B96F-786D-4125-989F-3E3CFF23FE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DE3BF561-0B82-43D4-B37C-78CB18EF7942}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3DBD4D6-400B-41D3-89E0-8B4B19C22F28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="398">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -986,244 +986,253 @@
     <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
   </si>
   <si>
-    <t>2,99%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
     <t>97,08%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA90989F-9A41-4BC0-9137-C3A864208077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731C929-4BCE-4AA4-B90C-594C2B7F79AA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1933,7 @@
         <v>542</v>
       </c>
       <c r="I7" s="7">
-        <v>553864</v>
+        <v>553863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1975,7 +1984,7 @@
         <v>574</v>
       </c>
       <c r="I8" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -2794,7 +2803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B142E04A-C591-4834-96C8-9C3C5912AEE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98632FF-9972-4195-96AF-AE84AB816F10}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3953,7 +3962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9478A10-A365-495A-B12F-496E9D70B718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D2ECDB-CBBB-470A-B6BE-81FE0741D428}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4227,7 +4236,7 @@
         <v>362</v>
       </c>
       <c r="D7" s="7">
-        <v>333204</v>
+        <v>333203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>241</v>
@@ -4278,7 +4287,7 @@
         <v>386</v>
       </c>
       <c r="D8" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5112,7 +5121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4CF842-06B8-4AA5-B1D3-3CFAF799AC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17744F6D-A733-4643-9CDD-79F7240EF0FF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5233,46 +5242,46 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>3917</v>
+        <v>3710</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>14945</v>
+        <v>13361</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>18862</v>
+        <v>17071</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,46 +5293,46 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>6896</v>
+        <v>6308</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>43046</v>
+        <v>37046</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>81</v>
       </c>
       <c r="N5" s="7">
-        <v>49942</v>
+        <v>43354</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,46 +5344,46 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1343</v>
+        <v>1283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>8410</v>
+        <v>7778</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>9753</v>
+        <v>9062</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,46 +5395,46 @@
         <v>409</v>
       </c>
       <c r="D7" s="7">
-        <v>275316</v>
+        <v>257942</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>908</v>
       </c>
       <c r="I7" s="7">
-        <v>489119</v>
+        <v>442547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>1317</v>
       </c>
       <c r="N7" s="7">
-        <v>764435</v>
+        <v>700489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,7 +5446,7 @@
         <v>428</v>
       </c>
       <c r="D8" s="7">
-        <v>287472</v>
+        <v>269244</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5452,7 +5461,7 @@
         <v>1019</v>
       </c>
       <c r="I8" s="7">
-        <v>555520</v>
+        <v>500733</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5467,7 +5476,7 @@
         <v>1447</v>
       </c>
       <c r="N8" s="7">
-        <v>842991</v>
+        <v>769976</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5490,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>1444</v>
+        <v>1345</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>157</v>
@@ -5499,37 +5508,37 @@
         <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>2072</v>
+        <v>1919</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>3516</v>
+        <v>3264</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,46 +5550,46 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5288</v>
+        <v>4818</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>8206</v>
+        <v>7382</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>13495</v>
+        <v>12200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>254</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,46 +5601,46 @@
         <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>1400</v>
+        <v>1256</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>1485</v>
+        <v>1354</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>2885</v>
+        <v>2611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>303</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,46 +5652,46 @@
         <v>415</v>
       </c>
       <c r="D12" s="7">
-        <v>286434</v>
+        <v>265837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>165</v>
+        <v>358</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H12" s="7">
         <v>505</v>
       </c>
       <c r="I12" s="7">
-        <v>374659</v>
+        <v>445084</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>920</v>
       </c>
       <c r="N12" s="7">
-        <v>661093</v>
+        <v>710921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,7 +5703,7 @@
         <v>426</v>
       </c>
       <c r="D13" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -5709,7 +5718,7 @@
         <v>529</v>
       </c>
       <c r="I13" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -5724,7 +5733,7 @@
         <v>955</v>
       </c>
       <c r="N13" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -5756,7 +5765,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5771,7 +5780,7 @@
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5807,28 +5816,28 @@
         <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>12</v>
@@ -5837,7 +5846,7 @@
         <v>32</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,16 +5858,16 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>204</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5873,22 +5882,22 @@
         <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5909,13 @@
         <v>167</v>
       </c>
       <c r="D17" s="7">
-        <v>111827</v>
+        <v>104828</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>66</v>
@@ -5915,13 +5924,13 @@
         <v>151</v>
       </c>
       <c r="I17" s="7">
-        <v>77818</v>
+        <v>70944</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>66</v>
@@ -5930,13 +5939,13 @@
         <v>318</v>
       </c>
       <c r="N17" s="7">
-        <v>189645</v>
+        <v>175772</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>66</v>
@@ -5951,7 +5960,7 @@
         <v>168</v>
       </c>
       <c r="D18" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -5966,7 +5975,7 @@
         <v>152</v>
       </c>
       <c r="I18" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -5981,7 +5990,7 @@
         <v>320</v>
       </c>
       <c r="N18" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6004,46 +6013,46 @@
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>5360</v>
+        <v>5055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>374</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>17017</v>
+        <v>15280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>39</v>
       </c>
       <c r="N19" s="7">
-        <v>22377</v>
+        <v>20335</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,46 +6064,46 @@
         <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>12184</v>
+        <v>11126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>194</v>
+        <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H20" s="7">
         <v>89</v>
       </c>
       <c r="I20" s="7">
-        <v>51679</v>
+        <v>44809</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M20" s="7">
         <v>106</v>
       </c>
       <c r="N20" s="7">
-        <v>63864</v>
+        <v>55935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>383</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,46 +6115,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>2902</v>
+        <v>2698</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>9895</v>
+        <v>9133</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>12797</v>
+        <v>11831</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,46 +6166,46 @@
         <v>991</v>
       </c>
       <c r="D22" s="7">
-        <v>673577</v>
+        <v>628607</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>389</v>
+        <v>43</v>
       </c>
       <c r="H22" s="7">
         <v>1564</v>
       </c>
       <c r="I22" s="7">
-        <v>941596</v>
+        <v>958575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
         <v>2555</v>
       </c>
       <c r="N22" s="7">
-        <v>1615173</v>
+        <v>1587181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6217,7 @@
         <v>1022</v>
       </c>
       <c r="D23" s="7">
-        <v>694024</v>
+        <v>647487</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6223,7 +6232,7 @@
         <v>1700</v>
       </c>
       <c r="I23" s="7">
-        <v>1020187</v>
+        <v>1027797</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6238,7 +6247,7 @@
         <v>2722</v>
       </c>
       <c r="N23" s="7">
-        <v>1714211</v>
+        <v>1675283</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
